--- a/data/pca/factorExposure/factorExposure_2012-06-28.xlsx
+++ b/data/pca/factorExposure/factorExposure_2012-06-28.xlsx
@@ -14,12 +14,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
   <si>
     <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -686,34 +698,58 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>0.01714335241227116</v>
+        <v>0.0225215848077659</v>
       </c>
       <c r="C2">
-        <v>0.02942860026187169</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>-0.02402161491536117</v>
+      </c>
+      <c r="D2">
+        <v>0.004843815366304654</v>
+      </c>
+      <c r="E2">
+        <v>-0.01995423134879706</v>
+      </c>
+      <c r="F2">
+        <v>-0.001903428497459946</v>
+      </c>
+      <c r="G2">
+        <v>-0.0108727299457291</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -721,21 +757,45 @@
       <c r="C3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.0674642695933966</v>
+        <v>0.07582583689627283</v>
       </c>
       <c r="C4">
-        <v>0.06166403832754577</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>-0.04135615661455043</v>
+      </c>
+      <c r="D4">
+        <v>0.07073877450789105</v>
+      </c>
+      <c r="E4">
+        <v>0.001332875513544099</v>
+      </c>
+      <c r="F4">
+        <v>-0.03063480671019627</v>
+      </c>
+      <c r="G4">
+        <v>0.01351220136935394</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -743,131 +803,275 @@
       <c r="C5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>0.09699093139690129</v>
+        <v>0.1141842913063254</v>
       </c>
       <c r="C6">
-        <v>0.06993861160872812</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>-0.04633871241898995</v>
+      </c>
+      <c r="D6">
+        <v>0.009435022065116724</v>
+      </c>
+      <c r="E6">
+        <v>-0.004658725930196034</v>
+      </c>
+      <c r="F6">
+        <v>-0.04354140689124028</v>
+      </c>
+      <c r="G6">
+        <v>-0.003814591117283092</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>0.0444128537963471</v>
+        <v>0.05409486466345244</v>
       </c>
       <c r="C7">
-        <v>0.03517030393299439</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>-0.0259577835497573</v>
+      </c>
+      <c r="D7">
+        <v>0.03438427125280231</v>
+      </c>
+      <c r="E7">
+        <v>-0.02143380308110053</v>
+      </c>
+      <c r="F7">
+        <v>-0.03334001094062283</v>
+      </c>
+      <c r="G7">
+        <v>0.04089910400031858</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>0.03257893294621668</v>
+        <v>0.03463519799268411</v>
       </c>
       <c r="C8">
-        <v>0.02828981813233784</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>-0.01692337878829787</v>
+      </c>
+      <c r="D8">
+        <v>0.03897378266321962</v>
+      </c>
+      <c r="E8">
+        <v>-0.006367962060933703</v>
+      </c>
+      <c r="F8">
+        <v>-0.04612315028393537</v>
+      </c>
+      <c r="G8">
+        <v>-0.01818099587811459</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>0.06249336588967046</v>
+        <v>0.07185830927353323</v>
       </c>
       <c r="C9">
-        <v>0.04758999054896746</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>-0.02990377980623704</v>
+      </c>
+      <c r="D9">
+        <v>0.06902209539337276</v>
+      </c>
+      <c r="E9">
+        <v>-0.0144883701081369</v>
+      </c>
+      <c r="F9">
+        <v>-0.04017980674532632</v>
+      </c>
+      <c r="G9">
+        <v>0.007287917726067006</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>0.02679136025555227</v>
+        <v>0.03960517204333474</v>
       </c>
       <c r="C10">
-        <v>0.03891902596817067</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>-0.03953004969476052</v>
+      </c>
+      <c r="D10">
+        <v>-0.1860503560891916</v>
+      </c>
+      <c r="E10">
+        <v>-0.04948777246152837</v>
+      </c>
+      <c r="F10">
+        <v>-0.03760604294913904</v>
+      </c>
+      <c r="G10">
+        <v>0.0320244743603859</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>0.06807639835994578</v>
+        <v>0.07558703673819051</v>
       </c>
       <c r="C11">
-        <v>0.0546782363002704</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>-0.03185754282903407</v>
+      </c>
+      <c r="D11">
+        <v>0.06816201304788767</v>
+      </c>
+      <c r="E11">
+        <v>0.009147855255638765</v>
+      </c>
+      <c r="F11">
+        <v>-0.03812102876621676</v>
+      </c>
+      <c r="G11">
+        <v>0.02143157095525955</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>0.05181242502263812</v>
+        <v>0.06065552685785997</v>
       </c>
       <c r="C12">
-        <v>0.05305468290312027</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>-0.03626747762086409</v>
+      </c>
+      <c r="D12">
+        <v>0.05119717351238529</v>
+      </c>
+      <c r="E12">
+        <v>-0.009047731713149182</v>
+      </c>
+      <c r="F12">
+        <v>-0.0288381502973204</v>
+      </c>
+      <c r="G12">
+        <v>0.02492833136545352</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>0.05921478832546864</v>
+        <v>0.06528993866118085</v>
       </c>
       <c r="C13">
-        <v>0.05371141043900465</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>-0.0324996178511486</v>
+      </c>
+      <c r="D13">
+        <v>0.05294703674895632</v>
+      </c>
+      <c r="E13">
+        <v>-0.004130950877161033</v>
+      </c>
+      <c r="F13">
+        <v>-0.02083778237797679</v>
+      </c>
+      <c r="G13">
+        <v>0.006010017544395497</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>0.03312336921484151</v>
+        <v>0.03840093364715383</v>
       </c>
       <c r="C14">
-        <v>0.02773977518462278</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>-0.0205956908250702</v>
+      </c>
+      <c r="D14">
+        <v>0.01024287953917757</v>
+      </c>
+      <c r="E14">
+        <v>-0.01252829607261767</v>
+      </c>
+      <c r="F14">
+        <v>-0.01571171712290559</v>
+      </c>
+      <c r="G14">
+        <v>-0.004043891628327551</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>0.03938161411136715</v>
+        <v>0.04064832442465129</v>
       </c>
       <c r="C15">
-        <v>0.01332971021784126</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>-0.003187677368196963</v>
+      </c>
+      <c r="D15">
+        <v>0.01776196631566546</v>
+      </c>
+      <c r="E15">
+        <v>-0.03819381532956626</v>
+      </c>
+      <c r="F15">
+        <v>-0.000711510848190988</v>
+      </c>
+      <c r="G15">
+        <v>-0.01804060884051159</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>0.05673717812310315</v>
+        <v>0.06185963721891596</v>
       </c>
       <c r="C16">
-        <v>0.04541966140679183</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>-0.02783675965798195</v>
+      </c>
+      <c r="D16">
+        <v>0.06046912772581012</v>
+      </c>
+      <c r="E16">
+        <v>0.001153631040752245</v>
+      </c>
+      <c r="F16">
+        <v>-0.03266352192131892</v>
+      </c>
+      <c r="G16">
+        <v>0.01015197635914485</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -875,10 +1079,22 @@
       <c r="C17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -886,10 +1102,22 @@
       <c r="C18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -897,87 +1125,183 @@
       <c r="C19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>0.06197381898780974</v>
+        <v>0.06190636160506047</v>
       </c>
       <c r="C20">
-        <v>0.03886871295568621</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>-0.0185373824739394</v>
+      </c>
+      <c r="D20">
+        <v>0.04886558229664765</v>
+      </c>
+      <c r="E20">
+        <v>-0.01693113887201371</v>
+      </c>
+      <c r="F20">
+        <v>-0.02912210214411315</v>
+      </c>
+      <c r="G20">
+        <v>0.02043880690227684</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>0.02804462361276846</v>
+        <v>0.02311356937057806</v>
       </c>
       <c r="C21">
-        <v>-0.000617982129988603</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>0.01126767865915416</v>
+      </c>
+      <c r="D21">
+        <v>0.03083654385556041</v>
+      </c>
+      <c r="E21">
+        <v>-0.09633185377833713</v>
+      </c>
+      <c r="F21">
+        <v>0.006917411159449862</v>
+      </c>
+      <c r="G21">
+        <v>-0.005600299055213176</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0.06799796700278574</v>
+        <v>0.06551817050097174</v>
       </c>
       <c r="C22">
-        <v>0.07526545913304326</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>-0.04430063268462636</v>
+      </c>
+      <c r="D22">
+        <v>0.1054469855454076</v>
+      </c>
+      <c r="E22">
+        <v>-0.6110808858550414</v>
+      </c>
+      <c r="F22">
+        <v>0.1410263283899602</v>
+      </c>
+      <c r="G22">
+        <v>0.0195694214591553</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0.06877365264010527</v>
+        <v>0.06624550914738965</v>
       </c>
       <c r="C23">
-        <v>0.07481652723343554</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>-0.04373863216045213</v>
+      </c>
+      <c r="D23">
+        <v>0.1065632772099996</v>
+      </c>
+      <c r="E23">
+        <v>-0.6103465321992544</v>
+      </c>
+      <c r="F23">
+        <v>0.140853474831313</v>
+      </c>
+      <c r="G23">
+        <v>0.01737347478586667</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>0.06484054655673317</v>
+        <v>0.07389690700449086</v>
       </c>
       <c r="C24">
-        <v>0.05432826869534454</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>-0.03371074733640919</v>
+      </c>
+      <c r="D24">
+        <v>0.06540409972192845</v>
+      </c>
+      <c r="E24">
+        <v>-0.007119910626406532</v>
+      </c>
+      <c r="F24">
+        <v>-0.04582916960660961</v>
+      </c>
+      <c r="G24">
+        <v>0.01011571392839107</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>0.06388980844729381</v>
+        <v>0.07119698417963383</v>
       </c>
       <c r="C25">
-        <v>0.05938576331840176</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>-0.03869325190419345</v>
+      </c>
+      <c r="D25">
+        <v>0.06380151919719829</v>
+      </c>
+      <c r="E25">
+        <v>-0.007823424293073195</v>
+      </c>
+      <c r="F25">
+        <v>-0.03950114244395466</v>
+      </c>
+      <c r="G25">
+        <v>0.002810497126350823</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>0.03850459612987177</v>
+        <v>0.04031119567424546</v>
       </c>
       <c r="C26">
-        <v>0.01420510707979102</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>-0.005100827404198092</v>
+      </c>
+      <c r="D26">
+        <v>0.02093098750199117</v>
+      </c>
+      <c r="E26">
+        <v>-0.03842390566609986</v>
+      </c>
+      <c r="F26">
+        <v>-0.02280149972863188</v>
+      </c>
+      <c r="G26">
+        <v>0.01744860516445387</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -985,109 +1309,229 @@
       <c r="C27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>0.04843524142939146</v>
+        <v>0.07286605848362052</v>
       </c>
       <c r="C28">
-        <v>0.0743647776768088</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>-0.07565489374114551</v>
+      </c>
+      <c r="D28">
+        <v>-0.3253945570114494</v>
+      </c>
+      <c r="E28">
+        <v>-0.04191059350845229</v>
+      </c>
+      <c r="F28">
+        <v>-0.05106730704974505</v>
+      </c>
+      <c r="G28">
+        <v>-0.02954517396010472</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>0.03508539651840459</v>
+        <v>0.04239821134499434</v>
       </c>
       <c r="C29">
-        <v>0.03238804994817909</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>-0.0250004475239385</v>
+      </c>
+      <c r="D29">
+        <v>0.01045683866892453</v>
+      </c>
+      <c r="E29">
+        <v>-0.03796503167188892</v>
+      </c>
+      <c r="F29">
+        <v>-0.01246109706823327</v>
+      </c>
+      <c r="G29">
+        <v>0.007602100444454857</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>0.1153787648411469</v>
+        <v>0.1289983980326516</v>
       </c>
       <c r="C30">
-        <v>0.09900509734356233</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>-0.06397220403817518</v>
+      </c>
+      <c r="D30">
+        <v>0.1006492656849033</v>
+      </c>
+      <c r="E30">
+        <v>-0.03306799980468754</v>
+      </c>
+      <c r="F30">
+        <v>-0.01757862227298665</v>
+      </c>
+      <c r="G30">
+        <v>0.00780724967005754</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>0.03788580658760846</v>
+        <v>0.04311307335520506</v>
       </c>
       <c r="C31">
-        <v>0.02667755968562116</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>-0.0158679320247473</v>
+      </c>
+      <c r="D31">
+        <v>0.02973588358065101</v>
+      </c>
+      <c r="E31">
+        <v>-0.02088320393562756</v>
+      </c>
+      <c r="F31">
+        <v>-0.01537894171504741</v>
+      </c>
+      <c r="G31">
+        <v>0.0191127132820239</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>0.03043831143185071</v>
+        <v>0.03150033917403551</v>
       </c>
       <c r="C32">
-        <v>0.02687442116277107</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>-0.01729716012283143</v>
+      </c>
+      <c r="D32">
+        <v>0.01769296149543734</v>
+      </c>
+      <c r="E32">
+        <v>-0.05850550504654996</v>
+      </c>
+      <c r="F32">
+        <v>0.01156917859733786</v>
+      </c>
+      <c r="G32">
+        <v>-0.02136303562560449</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>0.07455787744242429</v>
+        <v>0.08776644227537746</v>
       </c>
       <c r="C33">
-        <v>0.0535678799901545</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>-0.03405726200422883</v>
+      </c>
+      <c r="D33">
+        <v>0.064726462006109</v>
+      </c>
+      <c r="E33">
+        <v>-0.01057645826198913</v>
+      </c>
+      <c r="F33">
+        <v>-0.008634607790920453</v>
+      </c>
+      <c r="G33">
+        <v>0.02347864156243128</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>0.04988044683992648</v>
+        <v>0.05602910814384353</v>
       </c>
       <c r="C34">
-        <v>0.03399389627066152</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>-0.0189591701053671</v>
+      </c>
+      <c r="D34">
+        <v>0.05839966004992106</v>
+      </c>
+      <c r="E34">
+        <v>-0.00346173414352076</v>
+      </c>
+      <c r="F34">
+        <v>-0.02737206599871739</v>
+      </c>
+      <c r="G34">
+        <v>0.004467391546821991</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B35">
-        <v>0.03659450299019236</v>
+        <v>0.03929588339900501</v>
       </c>
       <c r="C35">
-        <v>0.01414284277097141</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>-0.005807142315850659</v>
+      </c>
+      <c r="D35">
+        <v>0.01074906191710591</v>
+      </c>
+      <c r="E35">
+        <v>-0.03136766968030361</v>
+      </c>
+      <c r="F35">
+        <v>0.003804317005989696</v>
+      </c>
+      <c r="G35">
+        <v>0.01321989007891536</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>0.0184464426674842</v>
+        <v>0.02298209400767328</v>
       </c>
       <c r="C36">
-        <v>0.01676806892177954</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>-0.01114241238007532</v>
+      </c>
+      <c r="D36">
+        <v>0.01961989066015365</v>
+      </c>
+      <c r="E36">
+        <v>-0.03439291027876712</v>
+      </c>
+      <c r="F36">
+        <v>-0.02185804116570809</v>
+      </c>
+      <c r="G36">
+        <v>0.01526681233662276</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1095,54 +1539,114 @@
       <c r="C37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>0.03756018299932906</v>
+        <v>0.04048337399324903</v>
       </c>
       <c r="C38">
-        <v>0.01296577554197793</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+        <v>-0.00314322491270281</v>
+      </c>
+      <c r="D38">
+        <v>0.01080186481768368</v>
+      </c>
+      <c r="E38">
+        <v>-0.06066435987451303</v>
+      </c>
+      <c r="F38">
+        <v>0.02133971096599389</v>
+      </c>
+      <c r="G38">
+        <v>-0.01355047529373451</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>0.08643606943932042</v>
+        <v>0.1001789228769118</v>
       </c>
       <c r="C39">
-        <v>0.08286874788167749</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>-0.0551856350687444</v>
+      </c>
+      <c r="D39">
+        <v>0.0858660120228827</v>
+      </c>
+      <c r="E39">
+        <v>0.01809308769873357</v>
+      </c>
+      <c r="F39">
+        <v>-0.02262150243619857</v>
+      </c>
+      <c r="G39">
+        <v>-0.01705136160639727</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>0.06503571113597609</v>
+        <v>0.07183454842911363</v>
       </c>
       <c r="C40">
-        <v>0.05708106236329387</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>-0.03700111790282145</v>
+      </c>
+      <c r="D40">
+        <v>0.01158748369610513</v>
+      </c>
+      <c r="E40">
+        <v>-0.0227784028206523</v>
+      </c>
+      <c r="F40">
+        <v>0.04736286059762077</v>
+      </c>
+      <c r="G40">
+        <v>-0.05255602515213187</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>0.03847719661680102</v>
+        <v>0.04273610541422197</v>
       </c>
       <c r="C41">
-        <v>0.01796539167093689</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+        <v>-0.008562058284137834</v>
+      </c>
+      <c r="D41">
+        <v>0.0420891727856593</v>
+      </c>
+      <c r="E41">
+        <v>-0.008467933375367519</v>
+      </c>
+      <c r="F41">
+        <v>0.008083219120699103</v>
+      </c>
+      <c r="G41">
+        <v>-0.007489293695320193</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1150,32 +1654,68 @@
       <c r="C42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>0.0407633391575619</v>
+        <v>0.04971489670738517</v>
       </c>
       <c r="C43">
-        <v>0.03798946113327924</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+        <v>-0.02444675920522429</v>
+      </c>
+      <c r="D43">
+        <v>0.02860978811281841</v>
+      </c>
+      <c r="E43">
+        <v>-0.01713577783598149</v>
+      </c>
+      <c r="F43">
+        <v>-0.01349083943997695</v>
+      </c>
+      <c r="G43">
+        <v>0.01208579110702235</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>0.08770052918131467</v>
+        <v>0.09151400573289388</v>
       </c>
       <c r="C44">
-        <v>0.0958795811170873</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+        <v>-0.06367046926569726</v>
+      </c>
+      <c r="D44">
+        <v>0.06059714381160675</v>
+      </c>
+      <c r="E44">
+        <v>-0.09788215340551344</v>
+      </c>
+      <c r="F44">
+        <v>-0.06699238068428934</v>
+      </c>
+      <c r="G44">
+        <v>-0.006854487587127429</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1183,76 +1723,160 @@
       <c r="C45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:3">
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>0.02727596877250711</v>
+        <v>0.02850949046427501</v>
       </c>
       <c r="C46">
-        <v>0.01920110229961958</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+        <v>-0.01133176081388619</v>
+      </c>
+      <c r="D46">
+        <v>0.03314311232626235</v>
+      </c>
+      <c r="E46">
+        <v>-0.0175689736603065</v>
+      </c>
+      <c r="F46">
+        <v>-0.018569241466773</v>
+      </c>
+      <c r="G46">
+        <v>-0.007120863058097049</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>0.02919535477319696</v>
+        <v>0.03183522584931598</v>
       </c>
       <c r="C47">
-        <v>0.02232992516524516</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+        <v>-0.0134399543097406</v>
+      </c>
+      <c r="D47">
+        <v>0.01835959043169938</v>
+      </c>
+      <c r="E47">
+        <v>-0.04935467585003867</v>
+      </c>
+      <c r="F47">
+        <v>-0.01541043800966491</v>
+      </c>
+      <c r="G47">
+        <v>0.02026343373381882</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>0.0271635083630888</v>
+        <v>0.03137697150539851</v>
       </c>
       <c r="C48">
-        <v>0.01973488201313959</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+        <v>-0.0117297310756096</v>
+      </c>
+      <c r="D48">
+        <v>0.03035146694007886</v>
+      </c>
+      <c r="E48">
+        <v>-0.04380978064827422</v>
+      </c>
+      <c r="F48">
+        <v>-0.01954150850663855</v>
+      </c>
+      <c r="G48">
+        <v>0.004664667651043369</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B49">
-        <v>0.1500006587430797</v>
+        <v>0.1743146281000027</v>
       </c>
       <c r="C49">
-        <v>0.09673433051079035</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+        <v>-0.05883037255745052</v>
+      </c>
+      <c r="D49">
+        <v>0.008635530421903468</v>
+      </c>
+      <c r="E49">
+        <v>0.1341018216549791</v>
+      </c>
+      <c r="F49">
+        <v>-0.01990004114083265</v>
+      </c>
+      <c r="G49">
+        <v>0.06201043670779004</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>0.03296881072760012</v>
+        <v>0.04060587698778394</v>
       </c>
       <c r="C50">
-        <v>0.02751652647156795</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+        <v>-0.02198673482157163</v>
+      </c>
+      <c r="D50">
+        <v>0.03825162117471268</v>
+      </c>
+      <c r="E50">
+        <v>-0.04265715414250214</v>
+      </c>
+      <c r="F50">
+        <v>-0.02938894033710377</v>
+      </c>
+      <c r="G50">
+        <v>0.01948457249484816</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>0.02376457677135572</v>
+        <v>0.02546620230178474</v>
       </c>
       <c r="C51">
-        <v>0.01833379823139077</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
+        <v>-0.01079069692498372</v>
+      </c>
+      <c r="D51">
+        <v>0.02600100370755777</v>
+      </c>
+      <c r="E51">
+        <v>-0.0139674488642084</v>
+      </c>
+      <c r="F51">
+        <v>-0.004762871493911862</v>
+      </c>
+      <c r="G51">
+        <v>-0.008718964114330581</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1260,54 +1884,114 @@
       <c r="C52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:3">
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>0.1384525771664048</v>
+        <v>0.1586279136773742</v>
       </c>
       <c r="C53">
-        <v>0.1051728274452671</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+        <v>-0.07042247061017526</v>
+      </c>
+      <c r="D53">
+        <v>0.02355240151489537</v>
+      </c>
+      <c r="E53">
+        <v>0.03888825289720117</v>
+      </c>
+      <c r="F53">
+        <v>-0.02670136137552748</v>
+      </c>
+      <c r="G53">
+        <v>-0.006923022407459596</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>0.05160764688593535</v>
+        <v>0.05637298678398832</v>
       </c>
       <c r="C54">
-        <v>0.02840568811940454</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+        <v>-0.01388908651501507</v>
+      </c>
+      <c r="D54">
+        <v>0.03722456377664065</v>
+      </c>
+      <c r="E54">
+        <v>-0.04238564958048515</v>
+      </c>
+      <c r="F54">
+        <v>-0.01578320359620423</v>
+      </c>
+      <c r="G54">
+        <v>0.004807057319423787</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>0.09323023532304434</v>
+        <v>0.1009749997782018</v>
       </c>
       <c r="C55">
-        <v>0.06653981214828973</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+        <v>-0.04380659183400409</v>
+      </c>
+      <c r="D55">
+        <v>0.03258622166885589</v>
+      </c>
+      <c r="E55">
+        <v>-0.006574824010746533</v>
+      </c>
+      <c r="F55">
+        <v>-0.02951752790919591</v>
+      </c>
+      <c r="G55">
+        <v>-0.01040607225447901</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>0.1345752699573916</v>
+        <v>0.1570624078788641</v>
       </c>
       <c r="C56">
-        <v>0.1130508644133904</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+        <v>-0.07818276382267286</v>
+      </c>
+      <c r="D56">
+        <v>0.01766312545380912</v>
+      </c>
+      <c r="E56">
+        <v>0.03808261688538755</v>
+      </c>
+      <c r="F56">
+        <v>-0.05780587165168331</v>
+      </c>
+      <c r="G56">
+        <v>0.008628160266455874</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1315,428 +1999,896 @@
       <c r="C57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>0.113835558588946</v>
+        <v>0.1046302182367378</v>
       </c>
       <c r="C58">
-        <v>0.03467810945714968</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+        <v>0.001693766378719187</v>
+      </c>
+      <c r="D58">
+        <v>0.05836074999055632</v>
+      </c>
+      <c r="E58">
+        <v>-0.1862733301646854</v>
+      </c>
+      <c r="F58">
+        <v>-0.04133842775811963</v>
+      </c>
+      <c r="G58">
+        <v>0.07179623141647284</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>0.1006792652420821</v>
+        <v>0.1445451075985447</v>
       </c>
       <c r="C59">
-        <v>0.09020981894353081</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
+        <v>-0.08691994314521831</v>
+      </c>
+      <c r="D59">
+        <v>-0.3508004693952981</v>
+      </c>
+      <c r="E59">
+        <v>-0.0488238660108013</v>
+      </c>
+      <c r="F59">
+        <v>0.02431488327240267</v>
+      </c>
+      <c r="G59">
+        <v>0.0237742645431241</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>0.1796393948361681</v>
+        <v>0.213029844967045</v>
       </c>
       <c r="C60">
-        <v>0.1221596060135805</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
+        <v>-0.08111410501056684</v>
+      </c>
+      <c r="D60">
+        <v>0.01289021669392704</v>
+      </c>
+      <c r="E60">
+        <v>0.07097792044042997</v>
+      </c>
+      <c r="F60">
+        <v>-0.03271581864655407</v>
+      </c>
+      <c r="G60">
+        <v>-0.02999860255595992</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>0.07476522815053621</v>
+        <v>0.0844215389684642</v>
       </c>
       <c r="C61">
-        <v>0.0607887285944107</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
+        <v>-0.03948099205491694</v>
+      </c>
+      <c r="D61">
+        <v>0.06168538457028402</v>
+      </c>
+      <c r="E61">
+        <v>0.01770679121231507</v>
+      </c>
+      <c r="F61">
+        <v>-0.01346368712925073</v>
+      </c>
+      <c r="G61">
+        <v>0.02164291641113469</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B62">
-        <v>0.1134948071924225</v>
+        <v>0.1372633418830617</v>
       </c>
       <c r="C62">
-        <v>0.08255044717872013</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
+        <v>-0.05855044240200901</v>
+      </c>
+      <c r="D62">
+        <v>0.02878452697789035</v>
+      </c>
+      <c r="E62">
+        <v>0.05650220301609725</v>
+      </c>
+      <c r="F62">
+        <v>-0.02366219126428228</v>
+      </c>
+      <c r="G62">
+        <v>-0.04086766752417105</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>0.04918275021797644</v>
+        <v>0.05167742617323361</v>
       </c>
       <c r="C63">
-        <v>0.02920683274957775</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
+        <v>-0.0169804445865621</v>
+      </c>
+      <c r="D63">
+        <v>0.03051928160500968</v>
+      </c>
+      <c r="E63">
+        <v>-0.05087974053884676</v>
+      </c>
+      <c r="F63">
+        <v>-0.01490957941345969</v>
+      </c>
+      <c r="G63">
+        <v>-0.0235660895067292</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>0.1051680546504421</v>
+        <v>0.1112358077086586</v>
       </c>
       <c r="C64">
-        <v>0.04996986908005577</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
+        <v>-0.02469435005276151</v>
+      </c>
+      <c r="D64">
+        <v>0.04658347171301725</v>
+      </c>
+      <c r="E64">
+        <v>-0.02972224221120999</v>
+      </c>
+      <c r="F64">
+        <v>-0.05362116779017063</v>
+      </c>
+      <c r="G64">
+        <v>-0.02536365388692036</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>0.1075785481643946</v>
+        <v>0.1231234385993869</v>
       </c>
       <c r="C65">
-        <v>0.0689309861467354</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
+        <v>-0.04397428935125676</v>
+      </c>
+      <c r="D65">
+        <v>0.01276445414278427</v>
+      </c>
+      <c r="E65">
+        <v>-0.002912451211222817</v>
+      </c>
+      <c r="F65">
+        <v>-0.05531824189095621</v>
+      </c>
+      <c r="G65">
+        <v>-0.01876261680437503</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>0.1334777218600091</v>
+        <v>0.1523318590639302</v>
       </c>
       <c r="C66">
-        <v>0.09392582351959987</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
+        <v>-0.05804617670254248</v>
+      </c>
+      <c r="D66">
+        <v>0.1199513504231452</v>
+      </c>
+      <c r="E66">
+        <v>0.06079073402323482</v>
+      </c>
+      <c r="F66">
+        <v>-0.04688244387159621</v>
+      </c>
+      <c r="G66">
+        <v>-0.01328149690797589</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>0.06922111404167344</v>
+        <v>0.07479088168512503</v>
       </c>
       <c r="C67">
-        <v>0.02680276124340887</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
+        <v>-0.009461779262939422</v>
+      </c>
+      <c r="D67">
+        <v>0.02409339746006676</v>
+      </c>
+      <c r="E67">
+        <v>-0.02681909799848134</v>
+      </c>
+      <c r="F67">
+        <v>0.001724934786020371</v>
+      </c>
+      <c r="G67">
+        <v>0.007116824666287143</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>0.04984655867631282</v>
+        <v>0.0675824792799994</v>
       </c>
       <c r="C68">
-        <v>0.05000774525327847</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
+        <v>-0.04967905915982908</v>
+      </c>
+      <c r="D68">
+        <v>-0.2656767253899793</v>
+      </c>
+      <c r="E68">
+        <v>-0.05007775220742174</v>
+      </c>
+      <c r="F68">
+        <v>-0.0126632804858953</v>
+      </c>
+      <c r="G68">
+        <v>0.003807173310055867</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>0.04796002331870162</v>
+        <v>0.05065628009607401</v>
       </c>
       <c r="C69">
-        <v>0.03026081611249232</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
+        <v>-0.01339468292443361</v>
+      </c>
+      <c r="D69">
+        <v>0.03542945240006091</v>
+      </c>
+      <c r="E69">
+        <v>-0.01557350856572135</v>
+      </c>
+      <c r="F69">
+        <v>-0.003589834441969588</v>
+      </c>
+      <c r="G69">
+        <v>0.0008216970503109069</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B70">
-        <v>0.004403965363524847</v>
+        <v>0.01411149893263275</v>
       </c>
       <c r="C70">
-        <v>-0.002502210573445637</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
+        <v>0.0008445867735974011</v>
+      </c>
+      <c r="D70">
+        <v>-0.006435381485074203</v>
+      </c>
+      <c r="E70">
+        <v>0.02401383045382222</v>
+      </c>
+      <c r="F70">
+        <v>-0.01079075656213323</v>
+      </c>
+      <c r="G70">
+        <v>0.01472211069164664</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>0.05233045499711852</v>
+        <v>0.07032933920759678</v>
       </c>
       <c r="C71">
-        <v>0.04810273395235624</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
+        <v>-0.04803866002229813</v>
+      </c>
+      <c r="D71">
+        <v>-0.2999638247533264</v>
+      </c>
+      <c r="E71">
+        <v>-0.04762106251270862</v>
+      </c>
+      <c r="F71">
+        <v>-0.03324589808496509</v>
+      </c>
+      <c r="G71">
+        <v>0.002294473705126493</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>0.128899163663652</v>
+        <v>0.1517813776203619</v>
       </c>
       <c r="C72">
-        <v>0.08072769156358847</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
+        <v>-0.05172304406497004</v>
+      </c>
+      <c r="D72">
+        <v>0.01191379837405867</v>
+      </c>
+      <c r="E72">
+        <v>0.09500505796605421</v>
+      </c>
+      <c r="F72">
+        <v>0.1598517149779801</v>
+      </c>
+      <c r="G72">
+        <v>-0.114236346409627</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>0.2405353551819769</v>
+        <v>0.2680999299233676</v>
       </c>
       <c r="C73">
-        <v>0.1462304571873356</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
+        <v>-0.08786027322923549</v>
+      </c>
+      <c r="D73">
+        <v>0.06091628300618995</v>
+      </c>
+      <c r="E73">
+        <v>0.1874042625467882</v>
+      </c>
+      <c r="F73">
+        <v>-0.07033232249644406</v>
+      </c>
+      <c r="G73">
+        <v>0.211918603712261</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>0.0752711987235901</v>
+        <v>0.08947610300129379</v>
       </c>
       <c r="C74">
-        <v>0.08426803969473287</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
+        <v>-0.06360192687565058</v>
+      </c>
+      <c r="D74">
+        <v>0.03499560230066968</v>
+      </c>
+      <c r="E74">
+        <v>0.004196130315729434</v>
+      </c>
+      <c r="F74">
+        <v>-0.0005031147704372342</v>
+      </c>
+      <c r="G74">
+        <v>0.0206510623830626</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>0.09422677049902706</v>
+        <v>0.1068146902368022</v>
       </c>
       <c r="C75">
-        <v>0.07248701738754113</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
+        <v>-0.04247581435930696</v>
+      </c>
+      <c r="D75">
+        <v>0.01892369907302243</v>
+      </c>
+      <c r="E75">
+        <v>-0.001767859232601348</v>
+      </c>
+      <c r="F75">
+        <v>-0.06734661747925247</v>
+      </c>
+      <c r="G75">
+        <v>-0.0006120369784413914</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>0.1153007848804641</v>
+        <v>0.1312700882425234</v>
       </c>
       <c r="C76">
-        <v>0.1018919649434312</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
+        <v>-0.06937159440767922</v>
+      </c>
+      <c r="D76">
+        <v>0.05827874536693695</v>
+      </c>
+      <c r="E76">
+        <v>-0.006913465452225563</v>
+      </c>
+      <c r="F76">
+        <v>-0.06895619857484475</v>
+      </c>
+      <c r="G76">
+        <v>-0.01433359638965305</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>0.110642172696988</v>
+        <v>0.1148437857645856</v>
       </c>
       <c r="C77">
-        <v>0.06683232592163381</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
+        <v>-0.02962687040244807</v>
+      </c>
+      <c r="D77">
+        <v>0.02975007432364456</v>
+      </c>
+      <c r="E77">
+        <v>0.009363233179138262</v>
+      </c>
+      <c r="F77">
+        <v>-0.210830993807931</v>
+      </c>
+      <c r="G77">
+        <v>-0.8828985829589856</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>0.0831506906910837</v>
+        <v>0.1025652606214369</v>
       </c>
       <c r="C78">
-        <v>0.04870665666251935</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
+        <v>-0.03243511652348382</v>
+      </c>
+      <c r="D78">
+        <v>0.07428154627530124</v>
+      </c>
+      <c r="E78">
+        <v>-0.05150005749475243</v>
+      </c>
+      <c r="F78">
+        <v>0.004632885801755808</v>
+      </c>
+      <c r="G78">
+        <v>-0.00686410683473781</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0.1339253416105905</v>
+        <v>0.1512506759247008</v>
       </c>
       <c r="C79">
-        <v>0.1054546360402658</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
+        <v>-0.06540594714000901</v>
+      </c>
+      <c r="D79">
+        <v>0.02974362284675129</v>
+      </c>
+      <c r="E79">
+        <v>0.02638086675488282</v>
+      </c>
+      <c r="F79">
+        <v>-0.04165001300918376</v>
+      </c>
+      <c r="G79">
+        <v>0.001100965523508801</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>0.04179238253196119</v>
+        <v>0.04063841321429641</v>
       </c>
       <c r="C80">
-        <v>0.02018977218121574</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
+        <v>-0.00780964341021447</v>
+      </c>
+      <c r="D80">
+        <v>0.02843524542894649</v>
+      </c>
+      <c r="E80">
+        <v>-0.000238464670916148</v>
+      </c>
+      <c r="F80">
+        <v>0.01901713545491918</v>
+      </c>
+      <c r="G80">
+        <v>0.04236778495014886</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>0.107936898696853</v>
+        <v>0.120979205235523</v>
       </c>
       <c r="C81">
-        <v>0.08668234346054079</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
+        <v>-0.05477703377048386</v>
+      </c>
+      <c r="D81">
+        <v>0.03676477280555873</v>
+      </c>
+      <c r="E81">
+        <v>0.009496989613767777</v>
+      </c>
+      <c r="F81">
+        <v>-0.04163158492035215</v>
+      </c>
+      <c r="G81">
+        <v>0.03727803343532517</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0.1118124689101749</v>
+        <v>0.1245230935466077</v>
       </c>
       <c r="C82">
-        <v>0.09668569657974162</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
+        <v>-0.06182544419439466</v>
+      </c>
+      <c r="D82">
+        <v>0.03767641944531256</v>
+      </c>
+      <c r="E82">
+        <v>0.03099336026104901</v>
+      </c>
+      <c r="F82">
+        <v>-0.05936852289261291</v>
+      </c>
+      <c r="G82">
+        <v>0.03021173734410168</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>0.07273259225763019</v>
+        <v>0.07284012154214523</v>
       </c>
       <c r="C83">
-        <v>0.0189772714941732</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
+        <v>0.003796069417872462</v>
+      </c>
+      <c r="D83">
+        <v>0.04184152164319278</v>
+      </c>
+      <c r="E83">
+        <v>-0.005577106960283897</v>
+      </c>
+      <c r="F83">
+        <v>-0.01098579237851856</v>
+      </c>
+      <c r="G83">
+        <v>0.08897260498643919</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B84">
-        <v>0.02512239066327599</v>
+        <v>0.03283334551642438</v>
       </c>
       <c r="C84">
-        <v>0.02192543816283761</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
+        <v>-0.01971505563925124</v>
+      </c>
+      <c r="D84">
+        <v>0.0160367221666971</v>
+      </c>
+      <c r="E84">
+        <v>-0.01865979213691146</v>
+      </c>
+      <c r="F84">
+        <v>0.03659684394722706</v>
+      </c>
+      <c r="G84">
+        <v>0.06165898355416326</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>0.1184539201120668</v>
+        <v>0.1214590323975316</v>
       </c>
       <c r="C85">
-        <v>0.08633930539962748</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
+        <v>-0.04753850494987257</v>
+      </c>
+      <c r="D85">
+        <v>0.03303927910975607</v>
+      </c>
+      <c r="E85">
+        <v>-0.009888221062809309</v>
+      </c>
+      <c r="F85">
+        <v>-0.08668901634286366</v>
+      </c>
+      <c r="G85">
+        <v>-0.008433078655345316</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>0.04313312886328009</v>
+        <v>0.04563964175813859</v>
       </c>
       <c r="C86">
-        <v>0.02608508729871042</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
+        <v>-0.01069645378113798</v>
+      </c>
+      <c r="D86">
+        <v>0.01398945501122294</v>
+      </c>
+      <c r="E86">
+        <v>-0.04772166947168147</v>
+      </c>
+      <c r="F86">
+        <v>-0.01094734722364313</v>
+      </c>
+      <c r="G86">
+        <v>0.01252140894978927</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>0.1148143875648271</v>
+        <v>0.1206305126460833</v>
       </c>
       <c r="C87">
-        <v>0.08465734408053631</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
+        <v>-0.04808118113496669</v>
+      </c>
+      <c r="D87">
+        <v>0.07116782989159837</v>
+      </c>
+      <c r="E87">
+        <v>-0.01802591375296648</v>
+      </c>
+      <c r="F87">
+        <v>-0.02431975910512523</v>
+      </c>
+      <c r="G87">
+        <v>-0.1054770823537187</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>0.05232720648249676</v>
+        <v>0.05724982497374133</v>
       </c>
       <c r="C88">
-        <v>0.04345100202279709</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
+        <v>-0.02632072947310733</v>
+      </c>
+      <c r="D88">
+        <v>0.02688379398838016</v>
+      </c>
+      <c r="E88">
+        <v>-0.0205616158845316</v>
+      </c>
+      <c r="F88">
+        <v>-0.009888135751253203</v>
+      </c>
+      <c r="G88">
+        <v>-0.01538371412134826</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>0.0694869322164207</v>
+        <v>0.1039832166851366</v>
       </c>
       <c r="C89">
-        <v>0.08045406699948393</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
+        <v>-0.07913079801658755</v>
+      </c>
+      <c r="D89">
+        <v>-0.3288757514637077</v>
+      </c>
+      <c r="E89">
+        <v>-0.08280490997738831</v>
+      </c>
+      <c r="F89">
+        <v>-0.05749835640271274</v>
+      </c>
+      <c r="G89">
+        <v>0.01563862203597901</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>0.06274694532273617</v>
+        <v>0.08671771462020388</v>
       </c>
       <c r="C90">
-        <v>0.06937179733442374</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
+        <v>-0.06671174458016368</v>
+      </c>
+      <c r="D90">
+        <v>-0.3099908101406852</v>
+      </c>
+      <c r="E90">
+        <v>-0.06812967804053933</v>
+      </c>
+      <c r="F90">
+        <v>0.01731842205787328</v>
+      </c>
+      <c r="G90">
+        <v>0.02087672379208731</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>0.07668653915030782</v>
+        <v>0.0866967084366482</v>
       </c>
       <c r="C91">
-        <v>0.06659387091074871</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
+        <v>-0.0431010782646043</v>
+      </c>
+      <c r="D91">
+        <v>0.03041553105736985</v>
+      </c>
+      <c r="E91">
+        <v>-0.007224820776839388</v>
+      </c>
+      <c r="F91">
+        <v>-0.01369072954865939</v>
+      </c>
+      <c r="G91">
+        <v>0.01827231766425979</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>0.07923500421254466</v>
+        <v>0.1031317048013842</v>
       </c>
       <c r="C92">
-        <v>0.07069995571828977</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
+        <v>-0.06598422811354515</v>
+      </c>
+      <c r="D92">
+        <v>-0.3278999773850138</v>
+      </c>
+      <c r="E92">
+        <v>-0.04528835264720594</v>
+      </c>
+      <c r="F92">
+        <v>-0.02053381298442035</v>
+      </c>
+      <c r="G92">
+        <v>-0.00696251254418491</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>0.05633167179837021</v>
+        <v>0.08380286963500141</v>
       </c>
       <c r="C93">
-        <v>0.06632713114697227</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
+        <v>-0.06640356925819478</v>
+      </c>
+      <c r="D93">
+        <v>-0.3005773731902112</v>
+      </c>
+      <c r="E93">
+        <v>-0.04022823525283867</v>
+      </c>
+      <c r="F93">
+        <v>-0.03431991406633673</v>
+      </c>
+      <c r="G93">
+        <v>-0.008501238412788452</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>0.1230771259380542</v>
+        <v>0.1269052395486861</v>
       </c>
       <c r="C94">
-        <v>0.07843197782758632</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
+        <v>-0.03678328827204249</v>
+      </c>
+      <c r="D94">
+        <v>0.05827055058185533</v>
+      </c>
+      <c r="E94">
+        <v>0.03168356491601328</v>
+      </c>
+      <c r="F94">
+        <v>-0.04823468400418927</v>
+      </c>
+      <c r="G94">
+        <v>0.02228765445329936</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>0.1142606806215089</v>
+        <v>0.1214439906337834</v>
       </c>
       <c r="C95">
-        <v>0.05880935590050539</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
+        <v>-0.02731123911839176</v>
+      </c>
+      <c r="D95">
+        <v>0.05311804840394384</v>
+      </c>
+      <c r="E95">
+        <v>0.01165336256703689</v>
+      </c>
+      <c r="F95">
+        <v>-0.04103567666232293</v>
+      </c>
+      <c r="G95">
+        <v>0.003630516619679358</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -1744,43 +2896,91 @@
       <c r="C96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:3">
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B97">
-        <v>0.1904527366003022</v>
+        <v>0.2225382882400224</v>
       </c>
       <c r="C97">
-        <v>0.08049294556269752</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
+        <v>-0.04195832187246073</v>
+      </c>
+      <c r="D97">
+        <v>-0.01082541786763694</v>
+      </c>
+      <c r="E97">
+        <v>0.1755111641547568</v>
+      </c>
+      <c r="F97">
+        <v>0.8915288640344613</v>
+      </c>
+      <c r="G97">
+        <v>-0.1614815293399156</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>0.2293486790536472</v>
+        <v>0.2567610660103974</v>
       </c>
       <c r="C98">
-        <v>0.1270178303635565</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
+        <v>-0.06592564655926011</v>
+      </c>
+      <c r="D98">
+        <v>0.03954862371920959</v>
+      </c>
+      <c r="E98">
+        <v>0.146542500037245</v>
+      </c>
+      <c r="F98">
+        <v>-0.02791508752256126</v>
+      </c>
+      <c r="G98">
+        <v>0.2793494495903432</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B99">
-        <v>0.5788859627740618</v>
+        <v>0.3731373886642352</v>
       </c>
       <c r="C99">
-        <v>-0.8053962822103455</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
+        <v>0.9168254136228777</v>
+      </c>
+      <c r="D99">
+        <v>-0.07522617528792168</v>
+      </c>
+      <c r="E99">
+        <v>-0.04253481765949933</v>
+      </c>
+      <c r="F99">
+        <v>-0.03896412460187682</v>
+      </c>
+      <c r="G99">
+        <v>0.004637125241121376</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -1788,21 +2988,45 @@
       <c r="C100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:3">
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>0.03531572470655596</v>
+        <v>0.0425719567163528</v>
       </c>
       <c r="C101">
-        <v>0.03255053035502102</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
+        <v>-0.02506225064011692</v>
+      </c>
+      <c r="D101">
+        <v>0.01114606677489434</v>
+      </c>
+      <c r="E101">
+        <v>-0.03711515234860975</v>
+      </c>
+      <c r="F101">
+        <v>-0.01190452020605867</v>
+      </c>
+      <c r="G101">
+        <v>0.0083074676821364</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -1810,10 +3034,22 @@
       <c r="C102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:3">
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -1821,15 +3057,39 @@
       <c r="C103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:3">
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B104">
         <v>0</v>
       </c>
       <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
         <v>0</v>
       </c>
     </row>
